--- a/ONCHO/Entomological survey Survey/Nigeria/2024/delta/nov 2024/ng_oncho_2411_5_hlc_del.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/delta/nov 2024/ng_oncho_2411_5_hlc_del.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\nov 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D067EED9-6546-446D-859C-244672C61927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46207DE3-0303-4675-ABED-7C71AF96E1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,9 +572,6 @@
     <t>ASHAKA</t>
   </si>
   <si>
-    <t>UTAGBAUNO</t>
-  </si>
-  <si>
     <t>ETUA</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
     <t>OGBOLI</t>
   </si>
   <si>
-    <t>ILLA</t>
-  </si>
-  <si>
     <t>BOLU ANGIAMA</t>
   </si>
   <si>
@@ -695,9 +689,6 @@
     <t>DEL_ANN_N_013</t>
   </si>
   <si>
-    <t>DEL_ANN_N_014</t>
-  </si>
-  <si>
     <t>DEL_ANN_S_015</t>
   </si>
   <si>
@@ -938,17 +929,26 @@
     <t>DEL_WAN_M_094</t>
   </si>
   <si>
-    <t>(Delta) 5. Human Landing Catches V2</t>
-  </si>
-  <si>
-    <t>ng_oncho_2408_5_hlc_del_v2</t>
+    <t>ng_oncho_2408_5_hlc_del_v3</t>
+  </si>
+  <si>
+    <t>(Delta) 5. Human Landing Catches V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTAGBAUNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLA </t>
+  </si>
+  <si>
+    <t>DEL_OSN_N_014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -994,19 +994,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1022,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1045,26 +1032,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1108,16 +1080,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2203,81 +2165,77 @@
       <c r="A26" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-    </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="21" t="s">
+      <c r="A28" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="21" t="s">
+      <c r="A29" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="21" t="s">
+      <c r="A30" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="21" t="s">
+      <c r="A31" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="21" t="s">
+      <c r="A32" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" t="s">
         <v>111</v>
       </c>
       <c r="D32" t="s">
@@ -2285,13 +2243,13 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="21" t="s">
+      <c r="A33" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" t="s">
         <v>112</v>
       </c>
       <c r="D33" t="s">
@@ -2299,13 +2257,13 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="21" t="s">
+      <c r="A34" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" t="s">
         <v>113</v>
       </c>
       <c r="D34" t="s">
@@ -2313,13 +2271,13 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="21" t="s">
+      <c r="A35" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" t="s">
         <v>114</v>
       </c>
       <c r="D35" t="s">
@@ -2327,13 +2285,13 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="21" t="s">
+      <c r="A36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" t="s">
         <v>115</v>
       </c>
       <c r="D36" t="s">
@@ -2341,13 +2299,13 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="21" t="s">
+      <c r="A37" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" t="s">
         <v>116</v>
       </c>
       <c r="D37" t="s">
@@ -2355,13 +2313,13 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="21" t="s">
+      <c r="A38" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" t="s">
         <v>117</v>
       </c>
       <c r="D38" t="s">
@@ -2369,13 +2327,13 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="21" t="s">
+      <c r="A39" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" t="s">
         <v>118</v>
       </c>
       <c r="D39" t="s">
@@ -2383,13 +2341,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="21" t="s">
+      <c r="A40" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" t="s">
         <v>119</v>
       </c>
       <c r="D40" t="s">
@@ -2397,13 +2355,13 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="21" t="s">
+      <c r="A41" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" t="s">
         <v>120</v>
       </c>
       <c r="D41" t="s">
@@ -2411,13 +2369,13 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="21" t="s">
+      <c r="A42" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" t="s">
         <v>121</v>
       </c>
       <c r="D42" t="s">
@@ -2425,13 +2383,13 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="21" t="s">
+      <c r="A43" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" t="s">
         <v>122</v>
       </c>
       <c r="D43" t="s">
@@ -2439,13 +2397,13 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="21" t="s">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" t="s">
         <v>123</v>
       </c>
       <c r="D44" t="s">
@@ -2453,13 +2411,13 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="21" t="s">
+      <c r="A45" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" t="s">
         <v>124</v>
       </c>
       <c r="D45" t="s">
@@ -2467,31 +2425,27 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="21" t="s">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" t="s">
         <v>125</v>
       </c>
       <c r="D46" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-    </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" t="s">
         <v>133</v>
       </c>
       <c r="E48" t="s">
@@ -2502,10 +2456,10 @@
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" t="s">
         <v>139</v>
       </c>
       <c r="E49" t="s">
@@ -2516,10 +2470,10 @@
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" t="s">
         <v>129</v>
       </c>
       <c r="E50" t="s">
@@ -2530,10 +2484,10 @@
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" t="s">
         <v>132</v>
       </c>
       <c r="E51" t="s">
@@ -2544,10 +2498,10 @@
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" t="s">
         <v>135</v>
       </c>
       <c r="E52" t="s">
@@ -2558,10 +2512,10 @@
       <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" t="s">
         <v>136</v>
       </c>
       <c r="E53" t="s">
@@ -2572,10 +2526,10 @@
       <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" t="s">
         <v>131</v>
       </c>
       <c r="E54" t="s">
@@ -2586,10 +2540,10 @@
       <c r="A55" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" t="s">
         <v>128</v>
       </c>
       <c r="E55" t="s">
@@ -2600,10 +2554,10 @@
       <c r="A56" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" t="s">
         <v>126</v>
       </c>
       <c r="E56" t="s">
@@ -2614,10 +2568,10 @@
       <c r="A57" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" t="s">
         <v>137</v>
       </c>
       <c r="E57" t="s">
@@ -2628,10 +2582,10 @@
       <c r="A58" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" t="s">
         <v>138</v>
       </c>
       <c r="E58" t="s">
@@ -2642,10 +2596,10 @@
       <c r="A59" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" t="s">
         <v>127</v>
       </c>
       <c r="E59" t="s">
@@ -2656,11 +2610,11 @@
       <c r="A60" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>134</v>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
       </c>
       <c r="E60" t="s">
         <v>107</v>
@@ -2670,25 +2624,25 @@
       <c r="A61" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>130</v>
+      <c r="B61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" t="s">
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>141</v>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
       </c>
       <c r="E62" t="s">
         <v>108</v>
@@ -2698,11 +2652,11 @@
       <c r="A63" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>149</v>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
+        <v>145</v>
       </c>
       <c r="E63" t="s">
         <v>108</v>
@@ -2712,11 +2666,11 @@
       <c r="A64" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>145</v>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
       </c>
       <c r="E64" t="s">
         <v>108</v>
@@ -2726,11 +2680,11 @@
       <c r="A65" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>143</v>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
       </c>
       <c r="E65" t="s">
         <v>108</v>
@@ -2740,11 +2694,11 @@
       <c r="A66" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>144</v>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
       </c>
       <c r="E66" t="s">
         <v>108</v>
@@ -2754,11 +2708,11 @@
       <c r="A67" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>146</v>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
       </c>
       <c r="E67" t="s">
         <v>108</v>
@@ -2768,11 +2722,11 @@
       <c r="A68" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>147</v>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
       </c>
       <c r="E68" t="s">
         <v>108</v>
@@ -2782,11 +2736,11 @@
       <c r="A69" t="s">
         <v>50</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>140</v>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
       </c>
       <c r="E69" t="s">
         <v>108</v>
@@ -2796,11 +2750,11 @@
       <c r="A70" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>142</v>
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="s">
+        <v>148</v>
       </c>
       <c r="E70" t="s">
         <v>108</v>
@@ -2810,25 +2764,25 @@
       <c r="A71" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>148</v>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" t="s">
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>50</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>150</v>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
       </c>
       <c r="E72" t="s">
         <v>109</v>
@@ -2838,25 +2792,25 @@
       <c r="A73" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>151</v>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>50</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>152</v>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" t="s">
+        <v>154</v>
       </c>
       <c r="E74" t="s">
         <v>110</v>
@@ -2866,11 +2820,11 @@
       <c r="A75" t="s">
         <v>50</v>
       </c>
-      <c r="B75" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>154</v>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
       </c>
       <c r="E75" t="s">
         <v>110</v>
@@ -2880,11 +2834,11 @@
       <c r="A76" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>153</v>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s">
+        <v>155</v>
       </c>
       <c r="E76" t="s">
         <v>110</v>
@@ -2894,25 +2848,25 @@
       <c r="A77" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>155</v>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>50</v>
       </c>
-      <c r="B78" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>160</v>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
+        <v>156</v>
       </c>
       <c r="E78" t="s">
         <v>111</v>
@@ -2922,11 +2876,11 @@
       <c r="A79" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>156</v>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
       </c>
       <c r="E79" t="s">
         <v>111</v>
@@ -2936,11 +2890,11 @@
       <c r="A80" t="s">
         <v>50</v>
       </c>
-      <c r="B80" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>161</v>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
       </c>
       <c r="E80" t="s">
         <v>111</v>
@@ -2950,11 +2904,11 @@
       <c r="A81" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>158</v>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
       </c>
       <c r="E81" t="s">
         <v>111</v>
@@ -2964,11 +2918,11 @@
       <c r="A82" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>157</v>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
+        <v>159</v>
       </c>
       <c r="E82" t="s">
         <v>111</v>
@@ -2978,25 +2932,25 @@
       <c r="A83" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>159</v>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
       </c>
       <c r="E83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>50</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>163</v>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>165</v>
       </c>
       <c r="E84" t="s">
         <v>112</v>
@@ -3006,11 +2960,11 @@
       <c r="A85" t="s">
         <v>50</v>
       </c>
-      <c r="B85" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>165</v>
+      <c r="B85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" t="s">
+        <v>162</v>
       </c>
       <c r="E85" t="s">
         <v>112</v>
@@ -3020,11 +2974,11 @@
       <c r="A86" t="s">
         <v>50</v>
       </c>
-      <c r="B86" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>162</v>
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" t="s">
+        <v>164</v>
       </c>
       <c r="E86" t="s">
         <v>112</v>
@@ -3034,25 +2988,25 @@
       <c r="A87" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>164</v>
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" t="s">
+        <v>166</v>
       </c>
       <c r="E87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>50</v>
       </c>
-      <c r="B88" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>166</v>
+      <c r="B88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" t="s">
+        <v>167</v>
       </c>
       <c r="E88" t="s">
         <v>113</v>
@@ -3062,25 +3016,25 @@
       <c r="A89" t="s">
         <v>50</v>
       </c>
-      <c r="B89" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>167</v>
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" t="s">
+        <v>168</v>
       </c>
       <c r="E89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>50</v>
       </c>
-      <c r="B90" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>168</v>
+      <c r="B90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" t="s">
+        <v>169</v>
       </c>
       <c r="E90" t="s">
         <v>114</v>
@@ -3090,11 +3044,11 @@
       <c r="A91" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>169</v>
+      <c r="B91" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" t="s">
+        <v>171</v>
       </c>
       <c r="E91" t="s">
         <v>114</v>
@@ -3104,11 +3058,11 @@
       <c r="A92" t="s">
         <v>50</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>171</v>
+      <c r="B92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" t="s">
+        <v>170</v>
       </c>
       <c r="E92" t="s">
         <v>114</v>
@@ -3118,39 +3072,39 @@
       <c r="A93" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>170</v>
+      <c r="B93" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" t="s">
+        <v>172</v>
       </c>
       <c r="E93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>50</v>
       </c>
-      <c r="B94" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>172</v>
+      <c r="B94" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" t="s">
+        <v>173</v>
       </c>
       <c r="E94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>50</v>
       </c>
-      <c r="B95" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>173</v>
+      <c r="B95" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" t="s">
+        <v>178</v>
       </c>
       <c r="E95" t="s">
         <v>116</v>
@@ -3160,11 +3114,11 @@
       <c r="A96" t="s">
         <v>50</v>
       </c>
-      <c r="B96" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>178</v>
+      <c r="B96" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" t="s">
+        <v>176</v>
       </c>
       <c r="E96" t="s">
         <v>116</v>
@@ -3174,11 +3128,11 @@
       <c r="A97" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>176</v>
+      <c r="B97" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" t="s">
+        <v>175</v>
       </c>
       <c r="E97" t="s">
         <v>116</v>
@@ -3188,11 +3142,11 @@
       <c r="A98" t="s">
         <v>50</v>
       </c>
-      <c r="B98" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>175</v>
+      <c r="B98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" t="s">
+        <v>177</v>
       </c>
       <c r="E98" t="s">
         <v>116</v>
@@ -3202,11 +3156,11 @@
       <c r="A99" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>177</v>
+      <c r="B99" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" t="s">
+        <v>174</v>
       </c>
       <c r="E99" t="s">
         <v>116</v>
@@ -3216,25 +3170,25 @@
       <c r="A100" t="s">
         <v>50</v>
       </c>
-      <c r="B100" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>174</v>
+      <c r="B100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" t="s">
+        <v>179</v>
       </c>
       <c r="E100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>50</v>
       </c>
-      <c r="B101" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>180</v>
+      <c r="B101" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" t="s">
+        <v>300</v>
       </c>
       <c r="E101" t="s">
         <v>117</v>
@@ -3244,39 +3198,39 @@
       <c r="A102" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>179</v>
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" t="s">
+        <v>180</v>
       </c>
       <c r="E102" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>181</v>
+      <c r="B103" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" t="s">
+        <v>187</v>
       </c>
       <c r="E103" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>50</v>
       </c>
-      <c r="B104" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>188</v>
+      <c r="B104" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" t="s">
+        <v>183</v>
       </c>
       <c r="E104" t="s">
         <v>119</v>
@@ -3286,10 +3240,10 @@
       <c r="A105" t="s">
         <v>50</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" t="s">
         <v>184</v>
       </c>
       <c r="E105" t="s">
@@ -3300,11 +3254,11 @@
       <c r="A106" t="s">
         <v>50</v>
       </c>
-      <c r="B106" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>185</v>
+      <c r="B106" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" t="s">
+        <v>181</v>
       </c>
       <c r="E106" t="s">
         <v>119</v>
@@ -3314,11 +3268,11 @@
       <c r="A107" t="s">
         <v>50</v>
       </c>
-      <c r="B107" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>182</v>
+      <c r="B107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" t="s">
+        <v>301</v>
       </c>
       <c r="E107" t="s">
         <v>119</v>
@@ -3328,11 +3282,11 @@
       <c r="A108" t="s">
         <v>50</v>
       </c>
-      <c r="B108" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>195</v>
+      <c r="B108" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" t="s">
+        <v>185</v>
       </c>
       <c r="E108" t="s">
         <v>119</v>
@@ -3342,11 +3296,11 @@
       <c r="A109" t="s">
         <v>50</v>
       </c>
-      <c r="B109" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>186</v>
+      <c r="B109" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" t="s">
+        <v>193</v>
       </c>
       <c r="E109" t="s">
         <v>119</v>
@@ -3356,11 +3310,11 @@
       <c r="A110" t="s">
         <v>50</v>
       </c>
-      <c r="B110" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>194</v>
+      <c r="B110" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110" t="s">
+        <v>186</v>
       </c>
       <c r="E110" t="s">
         <v>119</v>
@@ -3370,11 +3324,11 @@
       <c r="A111" t="s">
         <v>50</v>
       </c>
-      <c r="B111" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>187</v>
+      <c r="B111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" t="s">
+        <v>134</v>
       </c>
       <c r="E111" t="s">
         <v>119</v>
@@ -3384,11 +3338,11 @@
       <c r="A112" t="s">
         <v>50</v>
       </c>
-      <c r="B112" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>183</v>
+      <c r="B112" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" t="s">
+        <v>182</v>
       </c>
       <c r="E112" t="s">
         <v>119</v>
@@ -3398,11 +3352,11 @@
       <c r="A113" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>189</v>
+      <c r="B113" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" t="s">
+        <v>188</v>
       </c>
       <c r="E113" t="s">
         <v>120</v>
@@ -3412,11 +3366,11 @@
       <c r="A114" t="s">
         <v>50</v>
       </c>
-      <c r="B114" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>190</v>
+      <c r="B114" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" t="s">
+        <v>189</v>
       </c>
       <c r="E114" t="s">
         <v>120</v>
@@ -3426,11 +3380,11 @@
       <c r="A115" t="s">
         <v>50</v>
       </c>
-      <c r="B115" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>192</v>
+      <c r="B115" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" t="s">
+        <v>191</v>
       </c>
       <c r="E115" t="s">
         <v>120</v>
@@ -3440,11 +3394,11 @@
       <c r="A116" t="s">
         <v>50</v>
       </c>
-      <c r="B116" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>193</v>
+      <c r="B116" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" t="s">
+        <v>192</v>
       </c>
       <c r="E116" t="s">
         <v>120</v>
@@ -3454,11 +3408,11 @@
       <c r="A117" t="s">
         <v>50</v>
       </c>
-      <c r="B117" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>191</v>
+      <c r="B117" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" t="s">
+        <v>190</v>
       </c>
       <c r="E117" t="s">
         <v>120</v>
@@ -3468,11 +3422,11 @@
       <c r="A118" t="s">
         <v>50</v>
       </c>
-      <c r="B118" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>196</v>
+      <c r="B118" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" t="s">
+        <v>194</v>
       </c>
       <c r="E118" t="s">
         <v>121</v>
@@ -3482,11 +3436,11 @@
       <c r="A119" t="s">
         <v>50</v>
       </c>
-      <c r="B119" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>197</v>
+      <c r="B119" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" t="s">
+        <v>195</v>
       </c>
       <c r="E119" t="s">
         <v>122</v>
@@ -3496,11 +3450,11 @@
       <c r="A120" t="s">
         <v>50</v>
       </c>
-      <c r="B120" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>198</v>
+      <c r="B120" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" t="s">
+        <v>196</v>
       </c>
       <c r="E120" t="s">
         <v>122</v>
@@ -3510,11 +3464,11 @@
       <c r="A121" t="s">
         <v>50</v>
       </c>
-      <c r="B121" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>201</v>
+      <c r="B121" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" t="s">
+        <v>199</v>
       </c>
       <c r="E121" t="s">
         <v>123</v>
@@ -3524,11 +3478,11 @@
       <c r="A122" t="s">
         <v>50</v>
       </c>
-      <c r="B122" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>199</v>
+      <c r="B122" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" t="s">
+        <v>197</v>
       </c>
       <c r="E122" t="s">
         <v>123</v>
@@ -3538,11 +3492,11 @@
       <c r="A123" t="s">
         <v>50</v>
       </c>
-      <c r="B123" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>200</v>
+      <c r="B123" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" t="s">
+        <v>198</v>
       </c>
       <c r="E123" t="s">
         <v>123</v>
@@ -3552,11 +3506,11 @@
       <c r="A124" t="s">
         <v>50</v>
       </c>
-      <c r="B124" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>205</v>
+      <c r="B124" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" t="s">
+        <v>203</v>
       </c>
       <c r="E124" t="s">
         <v>124</v>
@@ -3566,11 +3520,11 @@
       <c r="A125" t="s">
         <v>50</v>
       </c>
-      <c r="B125" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>204</v>
+      <c r="B125" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" t="s">
+        <v>202</v>
       </c>
       <c r="E125" t="s">
         <v>124</v>
@@ -3580,11 +3534,11 @@
       <c r="A126" t="s">
         <v>50</v>
       </c>
-      <c r="B126" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>202</v>
+      <c r="B126" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126" t="s">
+        <v>200</v>
       </c>
       <c r="E126" t="s">
         <v>124</v>
@@ -3594,11 +3548,11 @@
       <c r="A127" t="s">
         <v>50</v>
       </c>
-      <c r="B127" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>203</v>
+      <c r="B127" t="s">
+        <v>201</v>
+      </c>
+      <c r="C127" t="s">
+        <v>201</v>
       </c>
       <c r="E127" t="s">
         <v>124</v>
@@ -3608,1334 +3562,1330 @@
       <c r="A128" t="s">
         <v>50</v>
       </c>
-      <c r="B128" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>206</v>
+      <c r="B128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" t="s">
+        <v>204</v>
       </c>
       <c r="E128" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="B129" s="20"/>
-      <c r="C129" s="20"/>
-    </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>207</v>
+      <c r="A130" t="s">
+        <v>86</v>
+      </c>
+      <c r="B130" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" t="s">
+        <v>205</v>
       </c>
       <c r="F130" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>208</v>
+      <c r="A131" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" t="s">
+        <v>206</v>
       </c>
       <c r="F131" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>209</v>
+      <c r="A132" t="s">
+        <v>86</v>
+      </c>
+      <c r="B132" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" t="s">
+        <v>207</v>
       </c>
       <c r="F132" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>210</v>
+      <c r="A133" t="s">
+        <v>86</v>
+      </c>
+      <c r="B133" t="s">
+        <v>208</v>
+      </c>
+      <c r="C133" t="s">
+        <v>208</v>
       </c>
       <c r="F133" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B134" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>211</v>
+      <c r="A134" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134" t="s">
+        <v>209</v>
+      </c>
+      <c r="C134" t="s">
+        <v>209</v>
       </c>
       <c r="F134" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>212</v>
+      <c r="A135" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" t="s">
+        <v>210</v>
+      </c>
+      <c r="C135" t="s">
+        <v>210</v>
       </c>
       <c r="F135" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>213</v>
+      <c r="A136" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" t="s">
+        <v>211</v>
+      </c>
+      <c r="C136" t="s">
+        <v>211</v>
       </c>
       <c r="F136" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>214</v>
+      <c r="A137" t="s">
+        <v>86</v>
+      </c>
+      <c r="B137" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" t="s">
+        <v>212</v>
       </c>
       <c r="F137" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>215</v>
+      <c r="A138" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" t="s">
+        <v>213</v>
+      </c>
+      <c r="C138" t="s">
+        <v>213</v>
       </c>
       <c r="F138" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B139" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>216</v>
+      <c r="A139" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" t="s">
+        <v>214</v>
+      </c>
+      <c r="C139" t="s">
+        <v>214</v>
       </c>
       <c r="F139" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>217</v>
+      <c r="A140" t="s">
+        <v>86</v>
+      </c>
+      <c r="B140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C140" t="s">
+        <v>215</v>
       </c>
       <c r="F140" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>218</v>
+      <c r="A141" t="s">
+        <v>86</v>
+      </c>
+      <c r="B141" t="s">
+        <v>216</v>
+      </c>
+      <c r="C141" t="s">
+        <v>216</v>
       </c>
       <c r="F141" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>219</v>
+      <c r="A142" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142" t="s">
+        <v>217</v>
+      </c>
+      <c r="C142" t="s">
+        <v>217</v>
       </c>
       <c r="F142" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B143" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>220</v>
+      <c r="A143" t="s">
+        <v>86</v>
+      </c>
+      <c r="B143" t="s">
+        <v>302</v>
+      </c>
+      <c r="C143" t="s">
+        <v>302</v>
       </c>
       <c r="F143" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B144" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>221</v>
+      <c r="A144" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144" t="s">
+        <v>218</v>
+      </c>
+      <c r="C144" t="s">
+        <v>218</v>
       </c>
       <c r="F144" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>222</v>
+      <c r="A145" t="s">
+        <v>86</v>
+      </c>
+      <c r="B145" t="s">
+        <v>219</v>
+      </c>
+      <c r="C145" t="s">
+        <v>219</v>
       </c>
       <c r="F145" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>223</v>
+      <c r="A146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146" t="s">
+        <v>220</v>
+      </c>
+      <c r="C146" t="s">
+        <v>220</v>
       </c>
       <c r="F146" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>224</v>
+      <c r="A147" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147" t="s">
+        <v>221</v>
+      </c>
+      <c r="C147" t="s">
+        <v>221</v>
       </c>
       <c r="F147" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>225</v>
+      <c r="A148" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148" t="s">
+        <v>222</v>
+      </c>
+      <c r="C148" t="s">
+        <v>222</v>
       </c>
       <c r="F148" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B149" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>226</v>
+      <c r="A149" t="s">
+        <v>86</v>
+      </c>
+      <c r="B149" t="s">
+        <v>223</v>
+      </c>
+      <c r="C149" t="s">
+        <v>223</v>
       </c>
       <c r="F149" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B150" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>227</v>
+      <c r="A150" t="s">
+        <v>86</v>
+      </c>
+      <c r="B150" t="s">
+        <v>224</v>
+      </c>
+      <c r="C150" t="s">
+        <v>224</v>
       </c>
       <c r="F150" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>228</v>
+      <c r="A151" t="s">
+        <v>86</v>
+      </c>
+      <c r="B151" t="s">
+        <v>225</v>
+      </c>
+      <c r="C151" t="s">
+        <v>225</v>
       </c>
       <c r="F151" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>229</v>
+      <c r="A152" t="s">
+        <v>86</v>
+      </c>
+      <c r="B152" t="s">
+        <v>226</v>
+      </c>
+      <c r="C152" t="s">
+        <v>226</v>
       </c>
       <c r="F152" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>230</v>
+      <c r="A153" t="s">
+        <v>86</v>
+      </c>
+      <c r="B153" t="s">
+        <v>227</v>
+      </c>
+      <c r="C153" t="s">
+        <v>227</v>
       </c>
       <c r="F153" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>231</v>
+      <c r="A154" t="s">
+        <v>86</v>
+      </c>
+      <c r="B154" t="s">
+        <v>228</v>
+      </c>
+      <c r="C154" t="s">
+        <v>228</v>
       </c>
       <c r="F154" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B155" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>232</v>
+      <c r="A155" t="s">
+        <v>86</v>
+      </c>
+      <c r="B155" t="s">
+        <v>229</v>
+      </c>
+      <c r="C155" t="s">
+        <v>229</v>
       </c>
       <c r="F155" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>233</v>
+      <c r="A156" t="s">
+        <v>86</v>
+      </c>
+      <c r="B156" t="s">
+        <v>230</v>
+      </c>
+      <c r="C156" t="s">
+        <v>230</v>
       </c>
       <c r="F156" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>234</v>
+      <c r="A157" t="s">
+        <v>86</v>
+      </c>
+      <c r="B157" t="s">
+        <v>231</v>
+      </c>
+      <c r="C157" t="s">
+        <v>231</v>
       </c>
       <c r="F157" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>235</v>
+      <c r="A158" t="s">
+        <v>86</v>
+      </c>
+      <c r="B158" t="s">
+        <v>232</v>
+      </c>
+      <c r="C158" t="s">
+        <v>232</v>
       </c>
       <c r="F158" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>236</v>
+      <c r="A159" t="s">
+        <v>86</v>
+      </c>
+      <c r="B159" t="s">
+        <v>233</v>
+      </c>
+      <c r="C159" t="s">
+        <v>233</v>
       </c>
       <c r="F159" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B160" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>237</v>
+      <c r="A160" t="s">
+        <v>86</v>
+      </c>
+      <c r="B160" t="s">
+        <v>234</v>
+      </c>
+      <c r="C160" t="s">
+        <v>234</v>
       </c>
       <c r="F160" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>238</v>
+      <c r="A161" t="s">
+        <v>86</v>
+      </c>
+      <c r="B161" t="s">
+        <v>235</v>
+      </c>
+      <c r="C161" t="s">
+        <v>235</v>
       </c>
       <c r="F161" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>239</v>
+      <c r="A162" t="s">
+        <v>86</v>
+      </c>
+      <c r="B162" t="s">
+        <v>236</v>
+      </c>
+      <c r="C162" t="s">
+        <v>236</v>
       </c>
       <c r="F162" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>240</v>
+      <c r="A163" t="s">
+        <v>86</v>
+      </c>
+      <c r="B163" t="s">
+        <v>237</v>
+      </c>
+      <c r="C163" t="s">
+        <v>237</v>
       </c>
       <c r="F163" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C164" s="20" t="s">
-        <v>241</v>
+      <c r="A164" t="s">
+        <v>86</v>
+      </c>
+      <c r="B164" t="s">
+        <v>238</v>
+      </c>
+      <c r="C164" t="s">
+        <v>238</v>
       </c>
       <c r="F164" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>242</v>
+      <c r="A165" t="s">
+        <v>86</v>
+      </c>
+      <c r="B165" t="s">
+        <v>239</v>
+      </c>
+      <c r="C165" t="s">
+        <v>239</v>
       </c>
       <c r="F165" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B166" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>243</v>
+      <c r="A166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>240</v>
+      </c>
+      <c r="C166" t="s">
+        <v>240</v>
       </c>
       <c r="F166" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>244</v>
+      <c r="A167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B167" t="s">
+        <v>241</v>
+      </c>
+      <c r="C167" t="s">
+        <v>241</v>
       </c>
       <c r="F167" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>245</v>
+      <c r="A168" t="s">
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>242</v>
+      </c>
+      <c r="C168" t="s">
+        <v>242</v>
       </c>
       <c r="F168" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>246</v>
+      <c r="A169" t="s">
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>243</v>
+      </c>
+      <c r="C169" t="s">
+        <v>243</v>
       </c>
       <c r="F169" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B170" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>247</v>
+      <c r="A170" t="s">
+        <v>86</v>
+      </c>
+      <c r="B170" t="s">
+        <v>244</v>
+      </c>
+      <c r="C170" t="s">
+        <v>244</v>
       </c>
       <c r="F170" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B171" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>248</v>
+      <c r="A171" t="s">
+        <v>86</v>
+      </c>
+      <c r="B171" t="s">
+        <v>245</v>
+      </c>
+      <c r="C171" t="s">
+        <v>245</v>
       </c>
       <c r="F171" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C172" s="20" t="s">
-        <v>249</v>
+      <c r="A172" t="s">
+        <v>86</v>
+      </c>
+      <c r="B172" t="s">
+        <v>246</v>
+      </c>
+      <c r="C172" t="s">
+        <v>246</v>
       </c>
       <c r="F172" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B173" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>250</v>
+      <c r="A173" t="s">
+        <v>86</v>
+      </c>
+      <c r="B173" t="s">
+        <v>247</v>
+      </c>
+      <c r="C173" t="s">
+        <v>247</v>
       </c>
       <c r="F173" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>251</v>
+      <c r="A174" t="s">
+        <v>86</v>
+      </c>
+      <c r="B174" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" t="s">
+        <v>248</v>
       </c>
       <c r="F174" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C175" s="20" t="s">
-        <v>252</v>
+      <c r="A175" t="s">
+        <v>86</v>
+      </c>
+      <c r="B175" t="s">
+        <v>249</v>
+      </c>
+      <c r="C175" t="s">
+        <v>249</v>
       </c>
       <c r="F175" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>253</v>
+      <c r="A176" t="s">
+        <v>86</v>
+      </c>
+      <c r="B176" t="s">
+        <v>250</v>
+      </c>
+      <c r="C176" t="s">
+        <v>250</v>
       </c>
       <c r="F176" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B177" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C177" s="20" t="s">
-        <v>254</v>
+      <c r="A177" t="s">
+        <v>86</v>
+      </c>
+      <c r="B177" t="s">
+        <v>251</v>
+      </c>
+      <c r="C177" t="s">
+        <v>251</v>
       </c>
       <c r="F177" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B178" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>255</v>
+      <c r="A178" t="s">
+        <v>86</v>
+      </c>
+      <c r="B178" t="s">
+        <v>252</v>
+      </c>
+      <c r="C178" t="s">
+        <v>252</v>
       </c>
       <c r="F178" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B179" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>256</v>
+      <c r="A179" t="s">
+        <v>86</v>
+      </c>
+      <c r="B179" t="s">
+        <v>253</v>
+      </c>
+      <c r="C179" t="s">
+        <v>253</v>
       </c>
       <c r="F179" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B180" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>257</v>
+      <c r="A180" t="s">
+        <v>86</v>
+      </c>
+      <c r="B180" t="s">
+        <v>254</v>
+      </c>
+      <c r="C180" t="s">
+        <v>254</v>
       </c>
       <c r="F180" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B181" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>258</v>
+      <c r="A181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B181" t="s">
+        <v>255</v>
+      </c>
+      <c r="C181" t="s">
+        <v>255</v>
       </c>
       <c r="F181" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B182" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>259</v>
+      <c r="A182" t="s">
+        <v>86</v>
+      </c>
+      <c r="B182" t="s">
+        <v>256</v>
+      </c>
+      <c r="C182" t="s">
+        <v>256</v>
       </c>
       <c r="F182" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B183" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>260</v>
+      <c r="A183" t="s">
+        <v>86</v>
+      </c>
+      <c r="B183" t="s">
+        <v>257</v>
+      </c>
+      <c r="C183" t="s">
+        <v>257</v>
       </c>
       <c r="F183" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B184" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>261</v>
+      <c r="A184" t="s">
+        <v>86</v>
+      </c>
+      <c r="B184" t="s">
+        <v>258</v>
+      </c>
+      <c r="C184" t="s">
+        <v>258</v>
       </c>
       <c r="F184" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B185" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>262</v>
+      <c r="A185" t="s">
+        <v>86</v>
+      </c>
+      <c r="B185" t="s">
+        <v>259</v>
+      </c>
+      <c r="C185" t="s">
+        <v>259</v>
       </c>
       <c r="F185" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B186" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>263</v>
+      <c r="A186" t="s">
+        <v>86</v>
+      </c>
+      <c r="B186" t="s">
+        <v>260</v>
+      </c>
+      <c r="C186" t="s">
+        <v>260</v>
       </c>
       <c r="F186" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B187" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>264</v>
+      <c r="A187" t="s">
+        <v>86</v>
+      </c>
+      <c r="B187" t="s">
+        <v>261</v>
+      </c>
+      <c r="C187" t="s">
+        <v>261</v>
       </c>
       <c r="F187" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B188" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C188" s="20" t="s">
-        <v>265</v>
+      <c r="A188" t="s">
+        <v>86</v>
+      </c>
+      <c r="B188" t="s">
+        <v>262</v>
+      </c>
+      <c r="C188" t="s">
+        <v>262</v>
       </c>
       <c r="F188" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B189" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C189" s="20" t="s">
-        <v>266</v>
+      <c r="A189" t="s">
+        <v>86</v>
+      </c>
+      <c r="B189" t="s">
+        <v>263</v>
+      </c>
+      <c r="C189" t="s">
+        <v>263</v>
       </c>
       <c r="F189" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B190" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C190" s="20" t="s">
-        <v>267</v>
+      <c r="A190" t="s">
+        <v>86</v>
+      </c>
+      <c r="B190" t="s">
+        <v>264</v>
+      </c>
+      <c r="C190" t="s">
+        <v>264</v>
       </c>
       <c r="F190" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B191" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>268</v>
+      <c r="A191" t="s">
+        <v>86</v>
+      </c>
+      <c r="B191" t="s">
+        <v>265</v>
+      </c>
+      <c r="C191" t="s">
+        <v>265</v>
       </c>
       <c r="F191" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B192" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C192" s="20" t="s">
-        <v>269</v>
+      <c r="A192" t="s">
+        <v>86</v>
+      </c>
+      <c r="B192" t="s">
+        <v>266</v>
+      </c>
+      <c r="C192" t="s">
+        <v>266</v>
       </c>
       <c r="F192" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B193" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C193" s="20" t="s">
-        <v>270</v>
+      <c r="A193" t="s">
+        <v>86</v>
+      </c>
+      <c r="B193" t="s">
+        <v>267</v>
+      </c>
+      <c r="C193" t="s">
+        <v>267</v>
       </c>
       <c r="F193" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B194" s="20" t="s">
+      <c r="A194" t="s">
+        <v>86</v>
+      </c>
+      <c r="B194" t="s">
+        <v>268</v>
+      </c>
+      <c r="C194" t="s">
+        <v>268</v>
+      </c>
+      <c r="F194" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>86</v>
+      </c>
+      <c r="B195" t="s">
+        <v>269</v>
+      </c>
+      <c r="C195" t="s">
+        <v>269</v>
+      </c>
+      <c r="F195" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>86</v>
+      </c>
+      <c r="B196" t="s">
+        <v>270</v>
+      </c>
+      <c r="C196" t="s">
+        <v>270</v>
+      </c>
+      <c r="F196" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>86</v>
+      </c>
+      <c r="B197" t="s">
         <v>271</v>
       </c>
-      <c r="C194" s="20" t="s">
+      <c r="C197" t="s">
         <v>271</v>
       </c>
-      <c r="F194" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B195" s="20" t="s">
+      <c r="F197" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>86</v>
+      </c>
+      <c r="B198" t="s">
         <v>272</v>
       </c>
-      <c r="C195" s="20" t="s">
+      <c r="C198" t="s">
         <v>272</v>
       </c>
-      <c r="F195" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B196" s="20" t="s">
+      <c r="F198" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>86</v>
+      </c>
+      <c r="B199" t="s">
         <v>273</v>
       </c>
-      <c r="C196" s="20" t="s">
+      <c r="C199" t="s">
         <v>273</v>
       </c>
-      <c r="F196" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B197" s="20" t="s">
+      <c r="F199" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>86</v>
+      </c>
+      <c r="B200" t="s">
         <v>274</v>
       </c>
-      <c r="C197" s="20" t="s">
+      <c r="C200" t="s">
         <v>274</v>
       </c>
-      <c r="F197" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B198" s="20" t="s">
+      <c r="F200" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>86</v>
+      </c>
+      <c r="B201" t="s">
         <v>275</v>
       </c>
-      <c r="C198" s="20" t="s">
+      <c r="C201" t="s">
         <v>275</v>
       </c>
-      <c r="F198" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B199" s="20" t="s">
+      <c r="F201" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>86</v>
+      </c>
+      <c r="B202" t="s">
         <v>276</v>
       </c>
-      <c r="C199" s="20" t="s">
+      <c r="C202" t="s">
         <v>276</v>
       </c>
-      <c r="F199" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B200" s="20" t="s">
+      <c r="F202" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>86</v>
+      </c>
+      <c r="B203" t="s">
         <v>277</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="C203" t="s">
         <v>277</v>
       </c>
-      <c r="F200" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B201" s="20" t="s">
+      <c r="F203" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>86</v>
+      </c>
+      <c r="B204" t="s">
         <v>278</v>
       </c>
-      <c r="C201" s="20" t="s">
+      <c r="C204" t="s">
         <v>278</v>
       </c>
-      <c r="F201" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B202" s="20" t="s">
+      <c r="F204" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>86</v>
+      </c>
+      <c r="B205" t="s">
         <v>279</v>
       </c>
-      <c r="C202" s="20" t="s">
+      <c r="C205" t="s">
         <v>279</v>
       </c>
-      <c r="F202" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B203" s="20" t="s">
+      <c r="F205" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>86</v>
+      </c>
+      <c r="B206" t="s">
         <v>280</v>
       </c>
-      <c r="C203" s="20" t="s">
+      <c r="C206" t="s">
         <v>280</v>
       </c>
-      <c r="F203" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B204" s="20" t="s">
+      <c r="F206" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>86</v>
+      </c>
+      <c r="B207" t="s">
         <v>281</v>
       </c>
-      <c r="C204" s="20" t="s">
+      <c r="C207" t="s">
         <v>281</v>
       </c>
-      <c r="F204" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B205" s="20" t="s">
+      <c r="F207" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>86</v>
+      </c>
+      <c r="B208" t="s">
         <v>282</v>
       </c>
-      <c r="C205" s="20" t="s">
+      <c r="C208" t="s">
         <v>282</v>
       </c>
-      <c r="F205" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B206" s="20" t="s">
+      <c r="F208" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>86</v>
+      </c>
+      <c r="B209" t="s">
         <v>283</v>
       </c>
-      <c r="C206" s="20" t="s">
+      <c r="C209" t="s">
         <v>283</v>
       </c>
-      <c r="F206" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B207" s="20" t="s">
+      <c r="F209" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>86</v>
+      </c>
+      <c r="B210" t="s">
         <v>284</v>
       </c>
-      <c r="C207" s="20" t="s">
+      <c r="C210" t="s">
         <v>284</v>
       </c>
-      <c r="F207" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B208" s="20" t="s">
+      <c r="F210" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>86</v>
+      </c>
+      <c r="B211" t="s">
         <v>285</v>
       </c>
-      <c r="C208" s="20" t="s">
+      <c r="C211" t="s">
         <v>285</v>
       </c>
-      <c r="F208" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B209" s="20" t="s">
+      <c r="F211" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>86</v>
+      </c>
+      <c r="B212" t="s">
         <v>286</v>
       </c>
-      <c r="C209" s="20" t="s">
+      <c r="C212" t="s">
         <v>286</v>
       </c>
-      <c r="F209" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B210" s="20" t="s">
+      <c r="F212" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>86</v>
+      </c>
+      <c r="B213" t="s">
         <v>287</v>
       </c>
-      <c r="C210" s="20" t="s">
+      <c r="C213" t="s">
         <v>287</v>
       </c>
-      <c r="F210" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B211" s="20" t="s">
+      <c r="F213" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>86</v>
+      </c>
+      <c r="B214" t="s">
         <v>288</v>
       </c>
-      <c r="C211" s="20" t="s">
+      <c r="C214" t="s">
         <v>288</v>
       </c>
-      <c r="F211" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B212" s="20" t="s">
+      <c r="F214" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>86</v>
+      </c>
+      <c r="B215" t="s">
         <v>289</v>
       </c>
-      <c r="C212" s="20" t="s">
+      <c r="C215" t="s">
         <v>289</v>
       </c>
-      <c r="F212" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B213" s="20" t="s">
+      <c r="F215" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>86</v>
+      </c>
+      <c r="B216" t="s">
         <v>290</v>
       </c>
-      <c r="C213" s="20" t="s">
+      <c r="C216" t="s">
         <v>290</v>
       </c>
-      <c r="F213" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B214" s="20" t="s">
+      <c r="F216" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>86</v>
+      </c>
+      <c r="B217" t="s">
         <v>291</v>
       </c>
-      <c r="C214" s="20" t="s">
+      <c r="C217" t="s">
         <v>291</v>
       </c>
-      <c r="F214" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B215" s="20" t="s">
+      <c r="F217" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>86</v>
+      </c>
+      <c r="B218" t="s">
         <v>292</v>
       </c>
-      <c r="C215" s="20" t="s">
+      <c r="C218" t="s">
         <v>292</v>
       </c>
-      <c r="F215" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B216" s="20" t="s">
+      <c r="F218" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>86</v>
+      </c>
+      <c r="B219" t="s">
         <v>293</v>
       </c>
-      <c r="C216" s="20" t="s">
+      <c r="C219" t="s">
         <v>293</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F219" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B217" s="20" t="s">
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>86</v>
+      </c>
+      <c r="B220" t="s">
         <v>294</v>
       </c>
-      <c r="C217" s="20" t="s">
+      <c r="C220" t="s">
         <v>294</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F220" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B218" s="20" t="s">
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>86</v>
+      </c>
+      <c r="B221" t="s">
         <v>295</v>
       </c>
-      <c r="C218" s="20" t="s">
+      <c r="C221" t="s">
         <v>295</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F221" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B219" s="20" t="s">
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>86</v>
+      </c>
+      <c r="B222" t="s">
         <v>296</v>
       </c>
-      <c r="C219" s="20" t="s">
+      <c r="C222" t="s">
         <v>296</v>
       </c>
-      <c r="F219" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B220" s="20" t="s">
+      <c r="F222" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>86</v>
+      </c>
+      <c r="B223" t="s">
         <v>297</v>
       </c>
-      <c r="C220" s="20" t="s">
+      <c r="C223" t="s">
         <v>297</v>
       </c>
-      <c r="F220" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B221" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C221" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="F221" t="s">
+      <c r="F223" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B222" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="F222" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B223" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="C223" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="F223" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4949,7 +4899,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4971,10 +4921,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>

--- a/ONCHO/Entomological survey Survey/Nigeria/2024/delta/nov 2024/ng_oncho_2411_5_hlc_del.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/delta/nov 2024/ng_oncho_2411_5_hlc_del.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\nov 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46207DE3-0303-4675-ABED-7C71AF96E1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB7B26B-3E0F-40AF-A876-332F7CEB9C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="310">
   <si>
     <t>type</t>
   </si>
@@ -98,15 +98,6 @@
     <t>Site Code</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
-    <t>s_gps</t>
-  </si>
-  <si>
-    <t>Works best outside of buildings</t>
-  </si>
-  <si>
     <t>s_river</t>
   </si>
   <si>
@@ -320,15 +311,9 @@
     <t>othe_flies_caught</t>
   </si>
   <si>
-    <t>Collect the GPS</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
-    <t>kj_2</t>
-  </si>
-  <si>
     <t>select_one state</t>
   </si>
   <si>
@@ -929,12 +914,6 @@
     <t>DEL_WAN_M_094</t>
   </si>
   <si>
-    <t>ng_oncho_2408_5_hlc_del_v3</t>
-  </si>
-  <si>
-    <t>(Delta) 5. Human Landing Catches V3</t>
-  </si>
-  <si>
     <t xml:space="preserve">UTAGBAUNO </t>
   </si>
   <si>
@@ -942,13 +921,55 @@
   </si>
   <si>
     <t>DEL_OSN_N_014</t>
+  </si>
+  <si>
+    <t>ng_oncho_2408_5_hlc_del_v3_2</t>
+  </si>
+  <si>
+    <t>(Delta) 5. Human Landing Catches V3.2</t>
+  </si>
+  <si>
+    <t>kj_d_32</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Please enter the Latitude of the river basin</t>
+  </si>
+  <si>
+    <t>Please enter the latitude in decimal format. If the latitude is south of the equator, include a negative sign ("-"). For example: -4.305638</t>
+  </si>
+  <si>
+    <t>. &gt;= -90 and . &lt;= 90</t>
+  </si>
+  <si>
+    <t>Latitude must be between -90° and 90°.</t>
+  </si>
+  <si>
+    <t>Please enter the Longitude of the river basin</t>
+  </si>
+  <si>
+    <t>Please enter the longitude in decimal format. If the longitude is west of the prime meridian, include a negative sign ("-"). For example: -74.005941</t>
+  </si>
+  <si>
+    <t>. &gt;= -180 and . &lt;= 180</t>
+  </si>
+  <si>
+    <t>Longitude must be between -180° and 180°.</t>
+  </si>
+  <si>
+    <t>s_gps_lat</t>
+  </si>
+  <si>
+    <t>s_gps_lng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -994,8 +1015,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,8 +1036,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1032,11 +1072,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1079,6 +1149,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1363,13 +1445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1432,13 +1514,13 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1">
       <c r="A2" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
@@ -1453,13 +1535,13 @@
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
@@ -1472,7 +1554,7 @@
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1">
@@ -1496,18 +1578,18 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -1525,7 +1607,7 @@
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>19</v>
@@ -1544,67 +1626,78 @@
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="11" customFormat="1">
-      <c r="A7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="22" customFormat="1" ht="63">
+      <c r="A7" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" s="22" customFormat="1" ht="63">
+      <c r="A8" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="18"/>
@@ -1616,40 +1709,45 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1">
       <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="13"/>
       <c r="K11" s="15"/>
@@ -1657,74 +1755,72 @@
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="J12" s="13"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="J14" s="13"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
@@ -1737,15 +1833,15 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" ht="31.5">
+    <row r="16" spans="1:13" s="11" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
@@ -1760,13 +1856,13 @@
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="31.5">
       <c r="A17" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -1779,15 +1875,15 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" s="11" customFormat="1">
+    <row r="18" spans="1:12" s="11" customFormat="1" ht="31.5">
       <c r="A18" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
@@ -1802,28 +1898,35 @@
     </row>
     <row r="19" spans="1:12" s="11" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" s="11" customFormat="1">
-      <c r="A20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="14"/>
+      <c r="A20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1834,11 +1937,8 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" s="11" customFormat="1">
-      <c r="A21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>46</v>
+      <c r="A21" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1852,10 +1952,10 @@
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1868,9 +1968,21 @@
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1">
-      <c r="B23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" s="11" customFormat="1">
       <c r="B24" s="19"/>
@@ -1878,9 +1990,14 @@
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1">
-      <c r="B25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" s="11" customFormat="1">
+      <c r="B26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1908,7 +2025,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1917,2975 +2034,2975 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="B26" t="s">
-        <v>106</v>
-      </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
         <v>105</v>
       </c>
-      <c r="B31" t="s">
-        <v>110</v>
-      </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E79" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E80" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E81" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E82" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E87" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E89" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E90" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C92" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E92" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C93" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E93" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E94" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C95" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E95" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E96" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E97" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C98" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E98" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C101" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E101" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E102" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E103" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E104" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C105" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E105" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C106" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E106" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C107" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E107" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B108" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C108" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E108" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C109" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E109" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B110" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C110" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E110" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B111" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C111" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E111" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C112" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E112" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C113" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E113" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B114" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E114" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E115" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B116" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C116" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E116" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B117" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C117" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E117" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C118" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E118" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B119" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C119" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E119" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B120" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C120" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E120" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B121" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E121" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C122" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E122" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C123" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E123" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C124" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E124" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C125" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B126" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C126" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C127" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E127" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C128" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E128" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C130" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F130" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C131" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F131" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C132" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F132" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C133" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F133" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C134" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F134" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C135" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F135" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C136" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F136" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C137" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F137" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B138" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C138" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F138" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C139" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F139" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F140" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C141" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F141" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B142" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C142" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F142" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B143" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C143" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F143" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B144" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C144" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F144" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B145" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F145" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B146" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C146" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F146" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C147" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F147" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C148" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F148" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B149" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C149" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F149" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B150" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C150" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F150" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B151" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C151" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F151" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B152" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C152" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F152" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B153" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C153" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F153" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B154" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C154" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F154" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B155" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C155" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F155" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C156" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F156" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B157" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C157" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F157" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B158" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C158" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F158" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B159" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C159" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F159" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B160" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C160" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F160" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B161" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C161" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F161" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B162" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C162" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F162" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B163" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C163" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F163" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C164" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F164" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B165" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C165" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F165" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B166" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C166" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F166" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C167" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F167" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B168" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C168" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F168" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B169" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C169" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F169" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C170" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F170" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B171" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C171" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F171" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B172" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C172" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F172" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B173" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C173" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F173" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B174" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C174" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F174" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B175" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C175" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F175" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B176" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C176" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F176" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B177" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C177" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F177" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B178" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C178" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F178" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B179" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C179" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F179" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B180" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C180" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F180" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B181" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C181" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F181" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B182" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C182" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F182" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B183" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C183" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F183" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B184" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C184" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F184" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B185" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C185" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F185" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B186" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C186" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F186" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B187" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C187" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F187" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B188" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C188" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F188" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B189" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C189" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F189" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B190" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C190" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F190" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B191" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C191" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F191" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B192" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C192" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F192" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B193" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C193" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F193" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B194" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C194" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F194" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B195" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C195" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F195" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B196" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C196" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F196" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B197" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C197" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F197" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B198" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C198" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F198" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B199" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C199" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F199" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B200" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C200" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F200" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B201" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C201" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F201" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B202" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C202" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F202" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B203" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C203" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F203" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B204" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C204" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F204" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B205" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C205" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F205" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B206" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C206" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F206" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B207" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C207" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F207" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C208" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F208" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C209" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F209" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C210" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F210" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B211" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C211" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F211" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B212" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C212" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F212" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B213" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C213" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F213" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B214" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C214" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F214" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B215" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C215" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F215" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B216" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C216" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F216" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B217" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C217" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F217" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B218" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C218" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F218" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B219" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C219" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F219" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B220" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C220" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F220" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B221" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C221" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F221" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B222" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C222" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F222" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B223" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C223" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F223" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4899,7 +5016,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4910,24 +5027,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
